--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.732</v>
+        <v>-12.463</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.686</v>
+        <v>-21.674</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,13 +519,13 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.14</v>
+        <v>-12.836</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.518</v>
+        <v>13.034</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.156</v>
+        <v>13.378</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>13.068</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.58</v>
+        <v>-20.814</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.91</v>
+        <v>-21.215</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.764</v>
+        <v>-12.09</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>13.79</v>
+        <v>13.784</v>
       </c>
     </row>
     <row r="18">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.484</v>
+        <v>-21.04</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.498</v>
+        <v>13.535</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-22.138</v>
+        <v>-21.709</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.484</v>
+        <v>-22.269</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
